--- a/election_votar_data/SATKANIA/AMILAIS/152413/152413_com_1120_male_without_photo_64_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/AMILAIS/152413/152413_com_1120_male_without_photo_64_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="41" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০৫/০৮/১৯৮৫</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ:১২/০৭/১৯৬৪</t>
         </is>
       </c>
       <c r="G121" s="3" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১০/০৯/১৯৯৩</t>
         </is>
       </c>
       <c r="G170" s="3" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="F202" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৬/০৩/১৯৭৯</t>
         </is>
       </c>
       <c r="G202" s="3" t="inlineStr">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="F203" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৫/০৮/১৯৮১</t>
         </is>
       </c>
       <c r="G203" s="3" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="F204" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০১/১১/১৯৯৭</t>
         </is>
       </c>
       <c r="G204" s="3" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০২/০৩/২০০৫</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
@@ -14679,7 +14679,7 @@
       </c>
       <c r="F339" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ২০/১১/১৯৯৬</t>
         </is>
       </c>
       <c r="G339" s="3" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F340" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:১০/০৩/২০০৫</t>
         </is>
       </c>
       <c r="G340" s="3" t="inlineStr">
@@ -19929,7 +19929,7 @@
       </c>
       <c r="F464" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২১/১১/২০০৫</t>
         </is>
       </c>
       <c r="G464" s="3" t="inlineStr">
@@ -20055,7 +20055,7 @@
       </c>
       <c r="F467" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/০১/২০০৫</t>
         </is>
       </c>
       <c r="G467" s="3" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:২৮/০১/২০০৫</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="F482" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:২০/১১/২০০৩</t>
         </is>
       </c>
       <c r="G482" s="3" t="inlineStr">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="F484" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৭/১০/১৯৯৬</t>
         </is>
       </c>
       <c r="G484" s="3" t="inlineStr">
@@ -20811,7 +20811,7 @@
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৫/০৬/১৯৯৬</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
@@ -20853,7 +20853,7 @@
       </c>
       <c r="F486" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ২১/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="G486" s="3" t="inlineStr">
@@ -20895,7 +20895,7 @@
       </c>
       <c r="F487" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৫/১২/১৯৯৬</t>
         </is>
       </c>
       <c r="G487" s="3" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="F488" s="3" t="inlineStr">
         <is>
-          <t>ক্ষুদ্র</t>
+          <t>ক্ষুদ্র/জন্ম তারিখ: ২১/০৯/১৯৯৬</t>
         </is>
       </c>
       <c r="G488" s="3" t="inlineStr">
@@ -20979,7 +20979,7 @@
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১০/০৬/১৯৯৬</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="F497" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০৫/১৯৮৭</t>
         </is>
       </c>
       <c r="G497" s="3" t="inlineStr">
@@ -23457,7 +23457,7 @@
       </c>
       <c r="F548" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০১/১১/২০০৫</t>
         </is>
       </c>
       <c r="G548" s="3" t="inlineStr">
@@ -26607,7 +26607,7 @@
       </c>
       <c r="F623" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/০৯/২০০৫</t>
         </is>
       </c>
       <c r="G623" s="3" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="F626" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:২৯/০৯/২০০৫</t>
         </is>
       </c>
       <c r="G626" s="3" t="inlineStr">
@@ -26817,7 +26817,7 @@
       </c>
       <c r="F628" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৭/০৬/২০০৫</t>
         </is>
       </c>
       <c r="G628" s="3" t="inlineStr">
@@ -26901,7 +26901,7 @@
       </c>
       <c r="F630" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৩/০৮/২০০৫</t>
         </is>
       </c>
       <c r="G630" s="3" t="inlineStr">
@@ -27064,12 +27064,12 @@
       </c>
       <c r="E634" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> শাহিনা আকতার</t>
+          <t>শাহিনা আকতার</t>
         </is>
       </c>
       <c r="F634" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৫/০১/২০০৫</t>
         </is>
       </c>
       <c r="G634" s="3" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="F639" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১৯/১০/১৯৯৬</t>
         </is>
       </c>
       <c r="G639" s="3" t="inlineStr">
@@ -27363,7 +27363,7 @@
       </c>
       <c r="F641" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৪/০৯/১৯৯৬</t>
         </is>
       </c>
       <c r="G641" s="3" t="inlineStr">
@@ -32151,7 +32151,7 @@
       </c>
       <c r="F755" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২৫/০৬/১৯৯৭</t>
         </is>
       </c>
       <c r="G755" s="3" t="inlineStr">
@@ -32571,7 +32571,7 @@
       </c>
       <c r="F765" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৬/০৬/২০০৫</t>
         </is>
       </c>
       <c r="G765" s="3" t="inlineStr">
@@ -33033,7 +33033,7 @@
       </c>
       <c r="F776" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:২৬/০২/২০০৫</t>
         </is>
       </c>
       <c r="G776" s="3" t="inlineStr">
@@ -37359,7 +37359,7 @@
       </c>
       <c r="F879" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ৩১/১২/১৯৯৭</t>
         </is>
       </c>
       <c r="G879" s="3" t="inlineStr">
@@ -37905,7 +37905,7 @@
       </c>
       <c r="F892" s="3" t="inlineStr">
         <is>
-          <t>ডাক্তার</t>
+          <t>ডাক্তার জন্ম তারিখ:২৮/০৭/১৯৬৮</t>
         </is>
       </c>
       <c r="G892" s="3" t="inlineStr">
@@ -39585,7 +39585,7 @@
       </c>
       <c r="F932" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৫/০৬/২০০৫</t>
         </is>
       </c>
       <c r="G932" s="3" t="inlineStr">
@@ -40131,7 +40131,7 @@
       </c>
       <c r="F945" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:২১/০৫/২০০৫</t>
         </is>
       </c>
       <c r="G945" s="3" t="inlineStr">
@@ -42567,7 +42567,7 @@
       </c>
       <c r="F1003" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০২/০৯/২০০৫</t>
         </is>
       </c>
       <c r="G1003" s="3" t="inlineStr">
@@ -44289,7 +44289,7 @@
       </c>
       <c r="F1044" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৭/০৩/২০০৫</t>
         </is>
       </c>
       <c r="G1044" s="3" t="inlineStr">
